--- a/config_6.29/shoping_config.xlsx
+++ b/config_6.29/shoping_config.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5287" uniqueCount="1841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5371" uniqueCount="1843">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5853,6 +5853,12 @@
   </si>
   <si>
     <t>9800000,2592000</t>
+  </si>
+  <si>
+    <t>盛夏礼包</t>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin"</t>
   </si>
   <si>
     <t>id|不能重复</t>
@@ -6730,10 +6736,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -6774,7 +6780,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6789,44 +6855,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6849,14 +6909,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6864,54 +6917,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7027,7 +7033,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7039,43 +7099,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7087,7 +7111,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7099,31 +7141,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7135,31 +7165,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7171,13 +7183,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7219,26 +7225,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7258,20 +7247,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7294,23 +7295,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7322,10 +7328,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7334,16 +7340,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7352,13 +7358,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7367,100 +7373,100 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -13651,14 +13657,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN670"/>
+  <dimension ref="A1:AN682"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="X626" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H659" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y635" sqref="Y635:Z646"/>
+      <selection pane="bottomRight" activeCell="H688" sqref="H688"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -54478,7 +54484,7 @@
         <v>10551</v>
       </c>
       <c r="F635" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G635" s="34" t="s">
         <v>1616</v>
@@ -54546,7 +54552,7 @@
         <v>10552</v>
       </c>
       <c r="F636" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G636" s="34" t="s">
         <v>1616</v>
@@ -54614,7 +54620,7 @@
         <v>10553</v>
       </c>
       <c r="F637" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G637" s="34" t="s">
         <v>1616</v>
@@ -54682,7 +54688,7 @@
         <v>10554</v>
       </c>
       <c r="F638" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G638" s="34" t="s">
         <v>1616</v>
@@ -54750,7 +54756,7 @@
         <v>10555</v>
       </c>
       <c r="F639" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G639" s="34" t="s">
         <v>1616</v>
@@ -54818,7 +54824,7 @@
         <v>10556</v>
       </c>
       <c r="F640" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G640" s="34" t="s">
         <v>1616</v>
@@ -54886,7 +54892,7 @@
         <v>10557</v>
       </c>
       <c r="F641" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G641" s="34" t="s">
         <v>1616</v>
@@ -54954,7 +54960,7 @@
         <v>10558</v>
       </c>
       <c r="F642" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G642" s="34" t="s">
         <v>1616</v>
@@ -55022,7 +55028,7 @@
         <v>10559</v>
       </c>
       <c r="F643" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G643" s="34" t="s">
         <v>1616</v>
@@ -55090,7 +55096,7 @@
         <v>10560</v>
       </c>
       <c r="F644" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G644" s="34" t="s">
         <v>1616</v>
@@ -55158,7 +55164,7 @@
         <v>10561</v>
       </c>
       <c r="F645" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G645" s="34" t="s">
         <v>1616</v>
@@ -55226,7 +55232,7 @@
         <v>10562</v>
       </c>
       <c r="F646" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G646" s="34" t="s">
         <v>1616</v>
@@ -56825,6 +56831,822 @@
         <v>1</v>
       </c>
       <c r="AM670" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:39">
+      <c r="A671" s="21">
+        <v>670</v>
+      </c>
+      <c r="B671" s="34">
+        <v>10587</v>
+      </c>
+      <c r="F671" s="21">
+        <v>1</v>
+      </c>
+      <c r="G671" s="34" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I671" s="33" t="s">
+        <v>1538</v>
+      </c>
+      <c r="J671" s="33" t="s">
+        <v>1559</v>
+      </c>
+      <c r="L671" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M671" s="33">
+        <v>0</v>
+      </c>
+      <c r="N671" s="33">
+        <v>0</v>
+      </c>
+      <c r="O671" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P671" s="34">
+        <v>600</v>
+      </c>
+      <c r="Q671" s="34" t="s">
+        <v>1645</v>
+      </c>
+      <c r="R671" s="35" t="s">
+        <v>1560</v>
+      </c>
+      <c r="W671" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X671" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y671" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z671" s="34">
+        <v>1625500799</v>
+      </c>
+      <c r="AA671" s="33">
+        <v>80</v>
+      </c>
+      <c r="AH671" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI671" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL671" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM671" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:39">
+      <c r="A672" s="21">
+        <v>671</v>
+      </c>
+      <c r="B672" s="34">
+        <v>10588</v>
+      </c>
+      <c r="F672" s="21">
+        <v>1</v>
+      </c>
+      <c r="G672" s="34" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I672" s="33" t="s">
+        <v>1538</v>
+      </c>
+      <c r="J672" s="33" t="s">
+        <v>1561</v>
+      </c>
+      <c r="L672" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M672" s="33">
+        <v>0</v>
+      </c>
+      <c r="N672" s="33">
+        <v>0</v>
+      </c>
+      <c r="O672" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P672" s="34">
+        <v>1000</v>
+      </c>
+      <c r="Q672" s="34" t="s">
+        <v>1645</v>
+      </c>
+      <c r="R672" s="35" t="s">
+        <v>1562</v>
+      </c>
+      <c r="W672" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X672" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y672" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z672" s="34">
+        <v>1625500799</v>
+      </c>
+      <c r="AA672" s="33">
+        <v>80</v>
+      </c>
+      <c r="AH672" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI672" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL672" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM672" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:39">
+      <c r="A673" s="21">
+        <v>672</v>
+      </c>
+      <c r="B673" s="34">
+        <v>10589</v>
+      </c>
+      <c r="F673" s="21">
+        <v>1</v>
+      </c>
+      <c r="G673" s="34" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I673" s="33" t="s">
+        <v>1538</v>
+      </c>
+      <c r="J673" s="33" t="s">
+        <v>1563</v>
+      </c>
+      <c r="L673" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M673" s="33">
+        <v>0</v>
+      </c>
+      <c r="N673" s="33">
+        <v>0</v>
+      </c>
+      <c r="O673" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P673" s="34">
+        <v>1800</v>
+      </c>
+      <c r="Q673" s="34" t="s">
+        <v>1645</v>
+      </c>
+      <c r="R673" s="35" t="s">
+        <v>1564</v>
+      </c>
+      <c r="W673" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X673" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y673" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z673" s="34">
+        <v>1625500799</v>
+      </c>
+      <c r="AA673" s="33">
+        <v>80</v>
+      </c>
+      <c r="AH673" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI673" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL673" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM673" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:39">
+      <c r="A674" s="21">
+        <v>673</v>
+      </c>
+      <c r="B674" s="34">
+        <v>10590</v>
+      </c>
+      <c r="F674" s="21">
+        <v>1</v>
+      </c>
+      <c r="G674" s="34" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I674" s="33" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J674" s="33" t="s">
+        <v>1565</v>
+      </c>
+      <c r="L674" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M674" s="33">
+        <v>0</v>
+      </c>
+      <c r="N674" s="33">
+        <v>0</v>
+      </c>
+      <c r="O674" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P674" s="34">
+        <v>1800</v>
+      </c>
+      <c r="Q674" s="34" t="s">
+        <v>1645</v>
+      </c>
+      <c r="R674" s="35" t="s">
+        <v>1547</v>
+      </c>
+      <c r="W674" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X674" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y674" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z674" s="34">
+        <v>1625500799</v>
+      </c>
+      <c r="AA674" s="33">
+        <v>81</v>
+      </c>
+      <c r="AH674" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI674" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL674" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM674" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:39">
+      <c r="A675" s="21">
+        <v>674</v>
+      </c>
+      <c r="B675" s="34">
+        <v>10591</v>
+      </c>
+      <c r="F675" s="21">
+        <v>1</v>
+      </c>
+      <c r="G675" s="34" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I675" s="33" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J675" s="33" t="s">
+        <v>1566</v>
+      </c>
+      <c r="L675" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M675" s="33">
+        <v>0</v>
+      </c>
+      <c r="N675" s="33">
+        <v>0</v>
+      </c>
+      <c r="O675" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P675" s="34">
+        <v>3000</v>
+      </c>
+      <c r="Q675" s="34" t="s">
+        <v>1645</v>
+      </c>
+      <c r="R675" s="35" t="s">
+        <v>1549</v>
+      </c>
+      <c r="W675" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X675" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y675" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z675" s="34">
+        <v>1625500799</v>
+      </c>
+      <c r="AA675" s="33">
+        <v>81</v>
+      </c>
+      <c r="AH675" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI675" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL675" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM675" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:39">
+      <c r="A676" s="21">
+        <v>675</v>
+      </c>
+      <c r="B676" s="34">
+        <v>10592</v>
+      </c>
+      <c r="F676" s="21">
+        <v>1</v>
+      </c>
+      <c r="G676" s="34" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I676" s="33" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J676" s="33" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L676" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M676" s="33">
+        <v>0</v>
+      </c>
+      <c r="N676" s="33">
+        <v>0</v>
+      </c>
+      <c r="O676" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P676" s="34">
+        <v>4800</v>
+      </c>
+      <c r="Q676" s="34" t="s">
+        <v>1645</v>
+      </c>
+      <c r="R676" s="35" t="s">
+        <v>1551</v>
+      </c>
+      <c r="W676" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X676" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y676" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z676" s="34">
+        <v>1625500799</v>
+      </c>
+      <c r="AA676" s="33">
+        <v>81</v>
+      </c>
+      <c r="AH676" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI676" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL676" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM676" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:39">
+      <c r="A677" s="21">
+        <v>676</v>
+      </c>
+      <c r="B677" s="34">
+        <v>10593</v>
+      </c>
+      <c r="F677" s="21">
+        <v>1</v>
+      </c>
+      <c r="G677" s="34" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I677" s="33" t="s">
+        <v>1552</v>
+      </c>
+      <c r="J677" s="33" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L677" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M677" s="33">
+        <v>0</v>
+      </c>
+      <c r="N677" s="33">
+        <v>0</v>
+      </c>
+      <c r="O677" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P677" s="34">
+        <v>4800</v>
+      </c>
+      <c r="Q677" s="34" t="s">
+        <v>1645</v>
+      </c>
+      <c r="R677" s="35" t="s">
+        <v>1551</v>
+      </c>
+      <c r="W677" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X677" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y677" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z677" s="34">
+        <v>1625500799</v>
+      </c>
+      <c r="AA677" s="33">
+        <v>82</v>
+      </c>
+      <c r="AH677" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI677" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL677" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM677" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:39">
+      <c r="A678" s="21">
+        <v>677</v>
+      </c>
+      <c r="B678" s="34">
+        <v>10594</v>
+      </c>
+      <c r="F678" s="21">
+        <v>1</v>
+      </c>
+      <c r="G678" s="34" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I678" s="33" t="s">
+        <v>1552</v>
+      </c>
+      <c r="J678" s="33" t="s">
+        <v>1568</v>
+      </c>
+      <c r="L678" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M678" s="33">
+        <v>0</v>
+      </c>
+      <c r="N678" s="33">
+        <v>0</v>
+      </c>
+      <c r="O678" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P678" s="34">
+        <v>9800</v>
+      </c>
+      <c r="Q678" s="34" t="s">
+        <v>1645</v>
+      </c>
+      <c r="R678" s="35" t="s">
+        <v>1554</v>
+      </c>
+      <c r="W678" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X678" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y678" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z678" s="34">
+        <v>1625500799</v>
+      </c>
+      <c r="AA678" s="33">
+        <v>82</v>
+      </c>
+      <c r="AH678" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI678" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL678" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM678" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:39">
+      <c r="A679" s="21">
+        <v>678</v>
+      </c>
+      <c r="B679" s="34">
+        <v>10595</v>
+      </c>
+      <c r="F679" s="21">
+        <v>1</v>
+      </c>
+      <c r="G679" s="34" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I679" s="33" t="s">
+        <v>1552</v>
+      </c>
+      <c r="J679" s="33" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L679" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M679" s="33">
+        <v>0</v>
+      </c>
+      <c r="N679" s="33">
+        <v>0</v>
+      </c>
+      <c r="O679" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P679" s="34">
+        <v>19800</v>
+      </c>
+      <c r="Q679" s="34" t="s">
+        <v>1645</v>
+      </c>
+      <c r="R679" s="35" t="s">
+        <v>1556</v>
+      </c>
+      <c r="W679" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X679" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y679" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z679" s="34">
+        <v>1625500799</v>
+      </c>
+      <c r="AA679" s="33">
+        <v>82</v>
+      </c>
+      <c r="AH679" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI679" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL679" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM679" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:39">
+      <c r="A680" s="21">
+        <v>679</v>
+      </c>
+      <c r="B680" s="34">
+        <v>10596</v>
+      </c>
+      <c r="F680" s="21">
+        <v>1</v>
+      </c>
+      <c r="G680" s="34" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I680" s="33" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J680" s="33" t="s">
+        <v>1568</v>
+      </c>
+      <c r="L680" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M680" s="33">
+        <v>0</v>
+      </c>
+      <c r="N680" s="33">
+        <v>0</v>
+      </c>
+      <c r="O680" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P680" s="34">
+        <v>9800</v>
+      </c>
+      <c r="Q680" s="34" t="s">
+        <v>1645</v>
+      </c>
+      <c r="R680" s="35" t="s">
+        <v>1554</v>
+      </c>
+      <c r="W680" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X680" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y680" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z680" s="34">
+        <v>1625500799</v>
+      </c>
+      <c r="AA680" s="33">
+        <v>83</v>
+      </c>
+      <c r="AH680" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI680" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL680" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM680" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:39">
+      <c r="A681" s="21">
+        <v>680</v>
+      </c>
+      <c r="B681" s="34">
+        <v>10597</v>
+      </c>
+      <c r="F681" s="21">
+        <v>1</v>
+      </c>
+      <c r="G681" s="34" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I681" s="33" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J681" s="33" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L681" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M681" s="33">
+        <v>0</v>
+      </c>
+      <c r="N681" s="33">
+        <v>0</v>
+      </c>
+      <c r="O681" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P681" s="34">
+        <v>19800</v>
+      </c>
+      <c r="Q681" s="34" t="s">
+        <v>1645</v>
+      </c>
+      <c r="R681" s="35" t="s">
+        <v>1556</v>
+      </c>
+      <c r="W681" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X681" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y681" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z681" s="34">
+        <v>1625500799</v>
+      </c>
+      <c r="AA681" s="33">
+        <v>83</v>
+      </c>
+      <c r="AH681" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI681" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL681" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM681" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:39">
+      <c r="A682" s="21">
+        <v>681</v>
+      </c>
+      <c r="B682" s="34">
+        <v>10598</v>
+      </c>
+      <c r="F682" s="21">
+        <v>1</v>
+      </c>
+      <c r="G682" s="34" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I682" s="33" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J682" s="33" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L682" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M682" s="33">
+        <v>0</v>
+      </c>
+      <c r="N682" s="33">
+        <v>0</v>
+      </c>
+      <c r="O682" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P682" s="34">
+        <v>49800</v>
+      </c>
+      <c r="Q682" s="34" t="s">
+        <v>1645</v>
+      </c>
+      <c r="R682" s="35" t="s">
+        <v>1558</v>
+      </c>
+      <c r="W682" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X682" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y682" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z682" s="34">
+        <v>1625500799</v>
+      </c>
+      <c r="AA682" s="33">
+        <v>83</v>
+      </c>
+      <c r="AH682" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI682" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL682" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM682" s="34">
         <v>1</v>
       </c>
     </row>
@@ -56857,19 +57679,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="58.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="2" ht="57.75" customHeight="1" spans="1:5">
@@ -56877,7 +57699,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -56886,7 +57708,7 @@
         <v>3600</v>
       </c>
       <c r="E2" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="3" ht="78.75" customHeight="1" spans="1:4">
@@ -56894,7 +57716,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -56908,7 +57730,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -56922,7 +57744,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -56936,7 +57758,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -56950,7 +57772,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -56964,7 +57786,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -56978,7 +57800,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -56992,7 +57814,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -57006,7 +57828,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -57020,7 +57842,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -57034,7 +57856,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -57048,7 +57870,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -57062,7 +57884,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -57076,7 +57898,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -57090,7 +57912,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -57104,7 +57926,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -57118,7 +57940,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -57132,7 +57954,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -57146,7 +57968,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -57160,7 +57982,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -57174,7 +57996,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -57188,7 +58010,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -57202,7 +58024,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -57216,7 +58038,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -57230,7 +58052,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -57245,7 +58067,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -57260,7 +58082,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -57275,7 +58097,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -57290,7 +58112,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -57305,7 +58127,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -57320,7 +58142,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -57335,7 +58157,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -57350,7 +58172,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -57365,7 +58187,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -57380,7 +58202,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -57395,7 +58217,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -57410,7 +58232,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -57424,7 +58246,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -57438,7 +58260,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -57452,7 +58274,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -57466,7 +58288,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -57480,7 +58302,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -57494,7 +58316,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -57508,7 +58330,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -57522,7 +58344,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -57536,7 +58358,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -57550,7 +58372,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -57564,7 +58386,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -57578,7 +58400,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -57592,7 +58414,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -57606,7 +58428,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -57620,7 +58442,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -57634,7 +58456,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -57648,7 +58470,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -57662,7 +58484,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -57676,7 +58498,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -57690,7 +58512,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -57704,7 +58526,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -57718,7 +58540,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -57732,7 +58554,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -57746,7 +58568,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -57760,7 +58582,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -57774,7 +58596,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -57788,7 +58610,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -57802,7 +58624,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -57816,7 +58638,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -57830,7 +58652,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -57844,7 +58666,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -57858,7 +58680,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="C71" s="2">
         <v>1</v>
@@ -57872,7 +58694,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
@@ -57886,7 +58708,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="C73" s="2">
         <v>1</v>
@@ -57900,7 +58722,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="C74" s="2">
         <v>1</v>
@@ -57914,7 +58736,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="C75" s="2">
         <v>1</v>
@@ -57928,7 +58750,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="C76" s="2">
         <v>1</v>
@@ -57942,7 +58764,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="C77" s="2">
         <v>1</v>
@@ -57956,7 +58778,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="C78" s="2">
         <v>1</v>
@@ -57970,7 +58792,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="C79" s="2">
         <v>1</v>
@@ -57984,7 +58806,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="C80" s="2">
         <v>1</v>
@@ -57998,7 +58820,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -58012,7 +58834,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -58026,7 +58848,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -58040,7 +58862,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -58054,7 +58876,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -58108,7 +58930,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="90" customHeight="1" spans="1:30">
       <c r="A1" s="1" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -58123,19 +58945,19 @@
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>32</v>
@@ -58150,7 +58972,7 @@
         <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>40</v>
@@ -58195,7 +59017,7 @@
         <v>53</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:27">
@@ -58215,7 +59037,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="H2" s="12">
         <v>600</v>
@@ -58245,19 +59067,19 @@
         <v>131</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="Z2" s="12">
         <v>1</v>
@@ -58286,7 +59108,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="H3" s="12">
         <v>1500</v>
@@ -58313,22 +59135,22 @@
         <v>4</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="U3" s="12" t="s">
         <v>67</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="Z3" s="12">
         <v>1</v>
@@ -58357,7 +59179,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="H4" s="12">
         <v>3000</v>
@@ -58384,22 +59206,22 @@
         <v>5</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>71</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="Z4" s="12">
         <v>1</v>
@@ -58428,7 +59250,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="H5" s="12">
         <v>5000</v>
@@ -58455,22 +59277,22 @@
         <v>6</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="U5" s="12" t="s">
         <v>75</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="Z5" s="12">
         <v>1</v>
@@ -58499,7 +59321,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="H6" s="12">
         <v>9800</v>
@@ -58526,22 +59348,22 @@
         <v>7</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="U6" s="12" t="s">
         <v>79</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="Z6" s="12">
         <v>1</v>
@@ -58570,7 +59392,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="H7" s="12">
         <v>49800</v>
@@ -58597,22 +59419,22 @@
         <v>9</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="U7" s="12" t="s">
         <v>83</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="Z7" s="12">
         <v>1</v>
@@ -58636,7 +59458,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="H8" s="12">
         <v>100</v>
@@ -58663,22 +59485,22 @@
         <v>0</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="U8" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="W8" s="12" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="Z8" s="12">
         <v>1</v>
@@ -58702,7 +59524,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="H9" s="12">
         <v>5000</v>
@@ -58729,19 +59551,19 @@
         <v>2</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="U9" s="12">
         <v>5000</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="Z9" s="12">
         <v>1</v>
@@ -58750,7 +59572,7 @@
         <v>1</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" spans="1:30">
@@ -58768,7 +59590,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="H10" s="12">
         <v>1000</v>
@@ -58798,16 +59620,16 @@
         <v>133</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="U10" s="12">
         <v>1000</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="W10" s="12" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="Z10" s="12">
         <v>1</v>
@@ -58816,7 +59638,7 @@
         <v>1</v>
       </c>
       <c r="AD10" s="17" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" spans="1:27">
@@ -58834,7 +59656,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="H11" s="12">
         <v>1500</v>
@@ -58861,22 +59683,22 @@
         <v>0</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="R11" s="17" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="U11" s="17" t="s">
         <v>67</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="W11" s="12" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="Z11" s="12">
         <v>1</v>
@@ -58905,7 +59727,7 @@
         <v>107</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="H12" s="12">
         <v>100000</v>
@@ -58932,22 +59754,22 @@
         <v>9</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>1767</v>
+        <v>1769</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="U12" s="12" t="s">
         <v>87</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="W12" s="12" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="Z12" s="12">
         <v>1</v>
@@ -58976,7 +59798,7 @@
         <v>108</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="H13" s="12">
         <v>99800</v>
@@ -59003,22 +59825,22 @@
         <v>10</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="R13" s="17" t="s">
+        <v>1772</v>
+      </c>
+      <c r="T13" s="17" t="s">
+        <v>1744</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>1773</v>
+      </c>
+      <c r="V13" s="12" t="s">
         <v>1770</v>
       </c>
-      <c r="T13" s="17" t="s">
-        <v>1742</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>1771</v>
-      </c>
-      <c r="V13" s="12" t="s">
-        <v>1768</v>
-      </c>
       <c r="W13" s="12" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="Z13" s="12">
         <v>1</v>
@@ -59047,7 +59869,7 @@
         <v>110</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="H14" s="12">
         <v>249800</v>
@@ -59074,22 +59896,22 @@
         <v>11</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="R14" s="17" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="T14" s="17" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="Z14" s="12">
         <v>1</v>
@@ -59113,7 +59935,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="H15" s="12">
         <v>100</v>
@@ -59143,20 +59965,20 @@
         <v>0</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="T15" s="17"/>
       <c r="U15" s="12">
         <v>100</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="Z15" s="12">
         <v>1</v>
@@ -59165,7 +59987,7 @@
         <v>1</v>
       </c>
       <c r="AD15" s="17" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="1" spans="1:27">
@@ -59188,7 +60010,7 @@
         <v>101</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="H16" s="12">
         <v>400</v>
@@ -59215,22 +60037,22 @@
         <v>3</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="U16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="Z16" s="12">
         <v>1</v>
@@ -59254,7 +60076,7 @@
         <v>102</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="H17" s="12">
         <v>2000</v>
@@ -59281,22 +60103,22 @@
         <v>4</v>
       </c>
       <c r="Q17" s="17" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="U17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="Z17" s="12">
         <v>1</v>
@@ -59320,7 +60142,7 @@
         <v>103</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="H18" s="12">
         <v>6700</v>
@@ -59347,22 +60169,22 @@
         <v>5</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="U18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="Z18" s="12">
         <v>1</v>
@@ -59386,7 +60208,7 @@
         <v>104</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="H19" s="12">
         <v>13200</v>
@@ -59413,22 +60235,22 @@
         <v>6</v>
       </c>
       <c r="Q19" s="17" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c r="R19" s="17" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="T19" s="17" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="U19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="Z19" s="12">
         <v>1</v>
@@ -59452,7 +60274,7 @@
         <v>105</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="H20" s="12">
         <v>20400</v>
@@ -59479,22 +60301,22 @@
         <v>7</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>1787</v>
+        <v>1789</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="U20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="Z20" s="12">
         <v>1</v>
@@ -59518,7 +60340,7 @@
         <v>101</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="H21" s="13">
         <v>100</v>
@@ -59545,22 +60367,22 @@
         <v>0</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="R21" s="18" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="U21" s="13" t="s">
         <v>124</v>
       </c>
       <c r="V21" s="18" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="W21" s="13" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="Z21" s="13">
         <v>1</v>
@@ -59584,7 +60406,7 @@
         <v>104</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="H22" s="12">
         <v>5000</v>
@@ -59611,20 +60433,20 @@
         <v>2</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="T22" s="17"/>
       <c r="U22" s="12">
         <v>5000</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="Z22" s="12">
         <v>1</v>
@@ -59648,7 +60470,7 @@
         <v>102</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="H23" s="12">
         <v>1000</v>
@@ -59678,17 +60500,17 @@
         <v>133</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="12">
         <v>1000</v>
       </c>
       <c r="V23" s="17" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="Z23" s="12">
         <v>1</v>
@@ -59705,14 +60527,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="D24" s="15"/>
       <c r="F24" s="12">
         <v>101</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="H24" s="12">
         <v>100</v>
@@ -59742,20 +60564,20 @@
         <v>0</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="T24" s="17"/>
       <c r="U24" s="12">
         <v>100</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="Z24" s="12">
         <v>1</v>
@@ -59764,7 +60586,7 @@
         <v>1</v>
       </c>
       <c r="AD24" s="17" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="25" s="12" customFormat="1" spans="1:27">
@@ -59787,7 +60609,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="H25" s="12">
         <v>19800</v>
@@ -59814,22 +60636,22 @@
         <v>8</v>
       </c>
       <c r="Q25" s="17" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="R25" s="17" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="T25" s="17" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="U25" s="17" t="s">
         <v>143</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="Z25" s="12">
         <v>1</v>
@@ -59899,13 +60721,13 @@
         <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>32</v>
@@ -59917,16 +60739,16 @@
         <v>154</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1793</v>
+        <v>1795</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1794</v>
+        <v>1796</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -59967,7 +60789,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -59979,7 +60801,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1798</v>
+        <v>1800</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -59988,7 +60810,7 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -59997,22 +60819,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1803</v>
+        <v>1805</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:23">
@@ -60023,7 +60845,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -60035,7 +60857,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1798</v>
+        <v>1800</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -60044,7 +60866,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -60053,22 +60875,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1805</v>
+        <v>1807</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1803</v>
+        <v>1805</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="W3" s="2">
         <v>8.3</v>
@@ -60082,7 +60904,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1806</v>
+        <v>1808</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -60107,19 +60929,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1808</v>
+        <v>1810</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1809</v>
+        <v>1811</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
@@ -60130,7 +60952,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1810</v>
+        <v>1812</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -60157,10 +60979,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:22">
@@ -60171,7 +60993,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -60198,10 +61020,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:23">
@@ -60212,7 +61034,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -60224,7 +61046,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1813</v>
+        <v>1815</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -60233,7 +61055,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -60242,22 +61064,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>1805</v>
+        <v>1807</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="W7" s="2">
         <v>8.3</v>
@@ -60271,10 +61093,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1816</v>
+        <v>1818</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -60286,7 +61108,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -60301,22 +61123,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:22">
@@ -60327,10 +61149,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -60345,16 +61167,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1822</v>
+        <v>1824</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:22">
@@ -60365,10 +61187,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -60383,16 +61205,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1824</v>
+        <v>1826</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:22">
@@ -60403,10 +61225,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -60421,16 +61243,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:22">
@@ -60441,10 +61263,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -60459,16 +61281,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:23">
@@ -60479,7 +61301,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -60503,16 +61325,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1828</v>
+        <v>1830</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -60526,7 +61348,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -60550,16 +61372,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1830</v>
+        <v>1832</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -60573,10 +61395,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -60597,16 +61419,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -60620,10 +61442,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -60639,13 +61461,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:22">
@@ -60656,10 +61478,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -60675,13 +61497,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:22">
@@ -60692,7 +61514,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -60711,13 +61533,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:22">
@@ -60728,7 +61550,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -60747,13 +61569,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:22">
@@ -60764,7 +61586,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -60782,16 +61604,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:22">
@@ -60802,7 +61624,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -60820,16 +61642,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
     </row>
   </sheetData>

--- a/config_6.29/shoping_config.xlsx
+++ b/config_6.29/shoping_config.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5371" uniqueCount="1843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5407" uniqueCount="1844">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5859,6 +5859,9 @@
   </si>
   <si>
     <t>"jing_bi","fish_coin"</t>
+  </si>
+  <si>
+    <t>消暑礼包</t>
   </si>
   <si>
     <t>id|不能重复</t>
@@ -6736,10 +6739,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -6779,15 +6782,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6801,8 +6797,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6824,7 +6828,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6838,6 +6857,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -6846,8 +6873,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6869,10 +6897,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6884,40 +6919,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7033,25 +7036,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7069,13 +7060,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7087,103 +7174,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7225,9 +7228,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7262,6 +7276,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -7273,6 +7296,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7291,35 +7323,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7328,10 +7331,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7340,133 +7343,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -13657,14 +13660,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN682"/>
+  <dimension ref="A1:AN688"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H659" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="V665" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H688" sqref="H688"/>
+      <selection pane="bottomRight" activeCell="A683" sqref="$A683:$XFD688"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -57650,6 +57653,396 @@
         <v>1</v>
       </c>
     </row>
+    <row r="683" spans="1:39">
+      <c r="A683" s="21">
+        <v>682</v>
+      </c>
+      <c r="B683" s="34">
+        <v>10599</v>
+      </c>
+      <c r="F683" s="21">
+        <v>1</v>
+      </c>
+      <c r="G683" s="34" t="s">
+        <v>1646</v>
+      </c>
+      <c r="J683" s="33" t="s">
+        <v>1572</v>
+      </c>
+      <c r="L683" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M683" s="33">
+        <v>0</v>
+      </c>
+      <c r="N683" s="33">
+        <v>0</v>
+      </c>
+      <c r="O683" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P683" s="34">
+        <v>49800</v>
+      </c>
+      <c r="Q683" s="33" t="s">
+        <v>1573</v>
+      </c>
+      <c r="R683" s="35" t="s">
+        <v>1574</v>
+      </c>
+      <c r="W683" s="21" t="s">
+        <v>1302</v>
+      </c>
+      <c r="X683" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y683" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z683" s="34">
+        <v>1627315199</v>
+      </c>
+      <c r="AA683" s="34">
+        <v>69</v>
+      </c>
+      <c r="AH683" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI683" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL683" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM683" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:39">
+      <c r="A684" s="21">
+        <v>683</v>
+      </c>
+      <c r="B684" s="34">
+        <v>10600</v>
+      </c>
+      <c r="F684" s="21">
+        <v>1</v>
+      </c>
+      <c r="G684" s="34" t="s">
+        <v>1646</v>
+      </c>
+      <c r="J684" s="33" t="s">
+        <v>1575</v>
+      </c>
+      <c r="L684" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M684" s="33">
+        <v>0</v>
+      </c>
+      <c r="N684" s="33">
+        <v>0</v>
+      </c>
+      <c r="O684" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P684" s="34">
+        <v>19800</v>
+      </c>
+      <c r="Q684" s="33" t="s">
+        <v>1573</v>
+      </c>
+      <c r="R684" s="35" t="s">
+        <v>1576</v>
+      </c>
+      <c r="W684" s="21" t="s">
+        <v>1302</v>
+      </c>
+      <c r="X684" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y684" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z684" s="34">
+        <v>1627315199</v>
+      </c>
+      <c r="AA684" s="34">
+        <v>69</v>
+      </c>
+      <c r="AH684" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI684" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL684" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM684" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:39">
+      <c r="A685" s="21">
+        <v>684</v>
+      </c>
+      <c r="B685" s="34">
+        <v>10601</v>
+      </c>
+      <c r="F685" s="21">
+        <v>1</v>
+      </c>
+      <c r="G685" s="34" t="s">
+        <v>1646</v>
+      </c>
+      <c r="J685" s="33" t="s">
+        <v>1577</v>
+      </c>
+      <c r="L685" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M685" s="33">
+        <v>0</v>
+      </c>
+      <c r="N685" s="33">
+        <v>0</v>
+      </c>
+      <c r="O685" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P685" s="34">
+        <v>9800</v>
+      </c>
+      <c r="Q685" s="33" t="s">
+        <v>1573</v>
+      </c>
+      <c r="R685" s="35" t="s">
+        <v>1578</v>
+      </c>
+      <c r="W685" s="21" t="s">
+        <v>1302</v>
+      </c>
+      <c r="X685" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y685" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z685" s="34">
+        <v>1627315199</v>
+      </c>
+      <c r="AA685" s="34">
+        <v>69</v>
+      </c>
+      <c r="AH685" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI685" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL685" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM685" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:39">
+      <c r="A686" s="21">
+        <v>685</v>
+      </c>
+      <c r="B686" s="34">
+        <v>10602</v>
+      </c>
+      <c r="F686" s="21">
+        <v>1</v>
+      </c>
+      <c r="G686" s="34" t="s">
+        <v>1646</v>
+      </c>
+      <c r="J686" s="33" t="s">
+        <v>1579</v>
+      </c>
+      <c r="L686" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M686" s="33">
+        <v>0</v>
+      </c>
+      <c r="N686" s="33">
+        <v>0</v>
+      </c>
+      <c r="O686" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P686" s="34">
+        <v>4800</v>
+      </c>
+      <c r="Q686" s="33" t="s">
+        <v>1573</v>
+      </c>
+      <c r="R686" s="35" t="s">
+        <v>1580</v>
+      </c>
+      <c r="W686" s="21" t="s">
+        <v>1302</v>
+      </c>
+      <c r="X686" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y686" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z686" s="34">
+        <v>1627315199</v>
+      </c>
+      <c r="AA686" s="34">
+        <v>69</v>
+      </c>
+      <c r="AH686" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI686" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL686" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM686" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:39">
+      <c r="A687" s="21">
+        <v>686</v>
+      </c>
+      <c r="B687" s="34">
+        <v>10603</v>
+      </c>
+      <c r="F687" s="21">
+        <v>1</v>
+      </c>
+      <c r="G687" s="34" t="s">
+        <v>1646</v>
+      </c>
+      <c r="J687" s="33" t="s">
+        <v>1581</v>
+      </c>
+      <c r="L687" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M687" s="33">
+        <v>0</v>
+      </c>
+      <c r="N687" s="33">
+        <v>0</v>
+      </c>
+      <c r="O687" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P687" s="34">
+        <v>2000</v>
+      </c>
+      <c r="Q687" s="33" t="s">
+        <v>1573</v>
+      </c>
+      <c r="R687" s="35" t="s">
+        <v>1582</v>
+      </c>
+      <c r="W687" s="21" t="s">
+        <v>1302</v>
+      </c>
+      <c r="X687" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y687" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z687" s="34">
+        <v>1627315199</v>
+      </c>
+      <c r="AA687" s="34">
+        <v>69</v>
+      </c>
+      <c r="AH687" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI687" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL687" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM687" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:39">
+      <c r="A688" s="21">
+        <v>687</v>
+      </c>
+      <c r="B688" s="34">
+        <v>10604</v>
+      </c>
+      <c r="F688" s="21">
+        <v>1</v>
+      </c>
+      <c r="G688" s="34" t="s">
+        <v>1646</v>
+      </c>
+      <c r="J688" s="33" t="s">
+        <v>1583</v>
+      </c>
+      <c r="L688" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M688" s="33">
+        <v>0</v>
+      </c>
+      <c r="N688" s="33">
+        <v>0</v>
+      </c>
+      <c r="O688" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P688" s="34">
+        <v>600</v>
+      </c>
+      <c r="Q688" s="33" t="s">
+        <v>1573</v>
+      </c>
+      <c r="R688" s="35" t="s">
+        <v>1584</v>
+      </c>
+      <c r="W688" s="21" t="s">
+        <v>1302</v>
+      </c>
+      <c r="X688" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y688" s="34">
+        <v>1624924800</v>
+      </c>
+      <c r="Z688" s="34">
+        <v>1627315199</v>
+      </c>
+      <c r="AA688" s="34">
+        <v>69</v>
+      </c>
+      <c r="AH688" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI688" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL688" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM688" s="34">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A542:AN548">
     <sortCondition ref="A542" descending="1"/>
@@ -57666,8 +58059,8 @@
   <sheetPr/>
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -57679,19 +58072,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="58.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="2" ht="57.75" customHeight="1" spans="1:5">
@@ -57699,7 +58092,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -57708,7 +58101,7 @@
         <v>3600</v>
       </c>
       <c r="E2" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="3" ht="78.75" customHeight="1" spans="1:4">
@@ -57716,7 +58109,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -57730,7 +58123,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -57744,7 +58137,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -57758,7 +58151,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -57772,7 +58165,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -57786,7 +58179,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -57800,7 +58193,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -57814,7 +58207,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -57828,7 +58221,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -57842,7 +58235,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -57856,7 +58249,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -57870,7 +58263,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -57884,7 +58277,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -57898,7 +58291,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -57912,7 +58305,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -57926,7 +58319,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -57940,7 +58333,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -57954,7 +58347,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -57968,7 +58361,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -57982,7 +58375,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -57996,7 +58389,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -58010,7 +58403,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -58024,7 +58417,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -58038,7 +58431,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -58052,7 +58445,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -58067,7 +58460,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -58082,7 +58475,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -58097,7 +58490,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -58112,7 +58505,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -58127,7 +58520,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -58142,7 +58535,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -58157,7 +58550,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -58172,7 +58565,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -58187,7 +58580,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -58202,7 +58595,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -58217,7 +58610,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -58232,7 +58625,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -58246,7 +58639,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -58260,7 +58653,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -58274,7 +58667,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -58288,7 +58681,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -58302,7 +58695,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -58316,7 +58709,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -58330,7 +58723,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -58344,7 +58737,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -58358,7 +58751,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -58372,7 +58765,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -58386,7 +58779,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -58400,7 +58793,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -58414,7 +58807,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -58428,7 +58821,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -58442,7 +58835,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -58456,7 +58849,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -58470,7 +58863,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -58484,7 +58877,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -58498,7 +58891,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -58512,7 +58905,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -58526,7 +58919,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -58540,7 +58933,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -58554,7 +58947,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -58568,7 +58961,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -58582,7 +58975,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -58596,7 +58989,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -58610,7 +59003,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -58624,7 +59017,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -58638,7 +59031,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -58652,7 +59045,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -58666,7 +59059,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -58680,7 +59073,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="C71" s="2">
         <v>1</v>
@@ -58694,7 +59087,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
@@ -58708,7 +59101,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="C73" s="2">
         <v>1</v>
@@ -58722,7 +59115,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="C74" s="2">
         <v>1</v>
@@ -58736,7 +59129,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="C75" s="2">
         <v>1</v>
@@ -58750,7 +59143,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="C76" s="2">
         <v>1</v>
@@ -58764,7 +59157,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="C77" s="2">
         <v>1</v>
@@ -58778,7 +59171,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C78" s="2">
         <v>1</v>
@@ -58792,7 +59185,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="C79" s="2">
         <v>1</v>
@@ -58806,7 +59199,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="C80" s="2">
         <v>1</v>
@@ -58820,7 +59213,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -58834,7 +59227,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -58848,7 +59241,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -58862,7 +59255,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -58876,7 +59269,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -58930,7 +59323,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="90" customHeight="1" spans="1:30">
       <c r="A1" s="1" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -58945,19 +59338,19 @@
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>32</v>
@@ -58972,7 +59365,7 @@
         <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>40</v>
@@ -59017,7 +59410,7 @@
         <v>53</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:27">
@@ -59037,7 +59430,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="H2" s="12">
         <v>600</v>
@@ -59067,19 +59460,19 @@
         <v>131</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="Z2" s="12">
         <v>1</v>
@@ -59108,7 +59501,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="H3" s="12">
         <v>1500</v>
@@ -59135,22 +59528,22 @@
         <v>4</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="U3" s="12" t="s">
         <v>67</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="Z3" s="12">
         <v>1</v>
@@ -59179,7 +59572,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="H4" s="12">
         <v>3000</v>
@@ -59206,22 +59599,22 @@
         <v>5</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>71</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="Z4" s="12">
         <v>1</v>
@@ -59250,7 +59643,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="H5" s="12">
         <v>5000</v>
@@ -59277,22 +59670,22 @@
         <v>6</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="U5" s="12" t="s">
         <v>75</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="Z5" s="12">
         <v>1</v>
@@ -59321,7 +59714,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="H6" s="12">
         <v>9800</v>
@@ -59348,22 +59741,22 @@
         <v>7</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="U6" s="12" t="s">
         <v>79</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="Z6" s="12">
         <v>1</v>
@@ -59392,7 +59785,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="H7" s="12">
         <v>49800</v>
@@ -59419,22 +59812,22 @@
         <v>9</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="U7" s="12" t="s">
         <v>83</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="Z7" s="12">
         <v>1</v>
@@ -59458,7 +59851,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="H8" s="12">
         <v>100</v>
@@ -59485,22 +59878,22 @@
         <v>0</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="U8" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="W8" s="12" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="Z8" s="12">
         <v>1</v>
@@ -59524,7 +59917,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="H9" s="12">
         <v>5000</v>
@@ -59551,19 +59944,19 @@
         <v>2</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="U9" s="12">
         <v>5000</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="Z9" s="12">
         <v>1</v>
@@ -59572,7 +59965,7 @@
         <v>1</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" spans="1:30">
@@ -59590,7 +59983,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="H10" s="12">
         <v>1000</v>
@@ -59620,16 +60013,16 @@
         <v>133</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="U10" s="12">
         <v>1000</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="W10" s="12" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="Z10" s="12">
         <v>1</v>
@@ -59638,7 +60031,7 @@
         <v>1</v>
       </c>
       <c r="AD10" s="17" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" spans="1:27">
@@ -59656,7 +60049,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="H11" s="12">
         <v>1500</v>
@@ -59683,22 +60076,22 @@
         <v>0</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="R11" s="17" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="U11" s="17" t="s">
         <v>67</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="W11" s="12" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="Z11" s="12">
         <v>1</v>
@@ -59727,7 +60120,7 @@
         <v>107</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="H12" s="12">
         <v>100000</v>
@@ -59754,22 +60147,22 @@
         <v>9</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="U12" s="12" t="s">
         <v>87</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="W12" s="12" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="Z12" s="12">
         <v>1</v>
@@ -59798,7 +60191,7 @@
         <v>108</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="H13" s="12">
         <v>99800</v>
@@ -59825,22 +60218,22 @@
         <v>10</v>
       </c>
       <c r="Q13" s="17" t="s">
+        <v>1772</v>
+      </c>
+      <c r="R13" s="17" t="s">
+        <v>1773</v>
+      </c>
+      <c r="T13" s="17" t="s">
+        <v>1745</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>1774</v>
+      </c>
+      <c r="V13" s="12" t="s">
         <v>1771</v>
       </c>
-      <c r="R13" s="17" t="s">
-        <v>1772</v>
-      </c>
-      <c r="T13" s="17" t="s">
-        <v>1744</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>1773</v>
-      </c>
-      <c r="V13" s="12" t="s">
-        <v>1770</v>
-      </c>
       <c r="W13" s="12" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="Z13" s="12">
         <v>1</v>
@@ -59869,7 +60262,7 @@
         <v>110</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="H14" s="12">
         <v>249800</v>
@@ -59896,22 +60289,22 @@
         <v>11</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="R14" s="17" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="T14" s="17" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="Z14" s="12">
         <v>1</v>
@@ -59935,7 +60328,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="H15" s="12">
         <v>100</v>
@@ -59965,20 +60358,20 @@
         <v>0</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T15" s="17"/>
       <c r="U15" s="12">
         <v>100</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="Z15" s="12">
         <v>1</v>
@@ -59987,7 +60380,7 @@
         <v>1</v>
       </c>
       <c r="AD15" s="17" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="1" spans="1:27">
@@ -60010,7 +60403,7 @@
         <v>101</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="H16" s="12">
         <v>400</v>
@@ -60037,22 +60430,22 @@
         <v>3</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="U16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="Z16" s="12">
         <v>1</v>
@@ -60076,7 +60469,7 @@
         <v>102</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="H17" s="12">
         <v>2000</v>
@@ -60103,22 +60496,22 @@
         <v>4</v>
       </c>
       <c r="Q17" s="17" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="U17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="Z17" s="12">
         <v>1</v>
@@ -60142,7 +60535,7 @@
         <v>103</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="H18" s="12">
         <v>6700</v>
@@ -60169,22 +60562,22 @@
         <v>5</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="U18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="Z18" s="12">
         <v>1</v>
@@ -60208,7 +60601,7 @@
         <v>104</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="H19" s="12">
         <v>13200</v>
@@ -60235,22 +60628,22 @@
         <v>6</v>
       </c>
       <c r="Q19" s="17" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="R19" s="17" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="T19" s="17" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="U19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="Z19" s="12">
         <v>1</v>
@@ -60274,7 +60667,7 @@
         <v>105</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="H20" s="12">
         <v>20400</v>
@@ -60301,22 +60694,22 @@
         <v>7</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="U20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="Z20" s="12">
         <v>1</v>
@@ -60340,7 +60733,7 @@
         <v>101</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="H21" s="13">
         <v>100</v>
@@ -60367,22 +60760,22 @@
         <v>0</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="R21" s="18" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="U21" s="13" t="s">
         <v>124</v>
       </c>
       <c r="V21" s="18" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="W21" s="13" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="Z21" s="13">
         <v>1</v>
@@ -60406,7 +60799,7 @@
         <v>104</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="H22" s="12">
         <v>5000</v>
@@ -60433,20 +60826,20 @@
         <v>2</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="T22" s="17"/>
       <c r="U22" s="12">
         <v>5000</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="Z22" s="12">
         <v>1</v>
@@ -60470,7 +60863,7 @@
         <v>102</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="H23" s="12">
         <v>1000</v>
@@ -60500,17 +60893,17 @@
         <v>133</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="12">
         <v>1000</v>
       </c>
       <c r="V23" s="17" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="Z23" s="12">
         <v>1</v>
@@ -60527,14 +60920,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="D24" s="15"/>
       <c r="F24" s="12">
         <v>101</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="H24" s="12">
         <v>100</v>
@@ -60564,20 +60957,20 @@
         <v>0</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="T24" s="17"/>
       <c r="U24" s="12">
         <v>100</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="Z24" s="12">
         <v>1</v>
@@ -60586,7 +60979,7 @@
         <v>1</v>
       </c>
       <c r="AD24" s="17" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="25" s="12" customFormat="1" spans="1:27">
@@ -60609,7 +61002,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="H25" s="12">
         <v>19800</v>
@@ -60636,22 +61029,22 @@
         <v>8</v>
       </c>
       <c r="Q25" s="17" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="R25" s="17" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="T25" s="17" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="U25" s="17" t="s">
         <v>143</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="Z25" s="12">
         <v>1</v>
@@ -60721,13 +61114,13 @@
         <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>32</v>
@@ -60739,16 +61132,16 @@
         <v>154</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -60789,7 +61182,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -60801,7 +61194,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -60810,7 +61203,7 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -60819,22 +61212,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:23">
@@ -60845,7 +61238,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -60857,7 +61250,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -60866,7 +61259,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -60875,22 +61268,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="W3" s="2">
         <v>8.3</v>
@@ -60904,7 +61297,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -60929,19 +61322,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
@@ -60952,7 +61345,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -60979,10 +61372,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:22">
@@ -60993,7 +61386,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -61020,10 +61413,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:23">
@@ -61034,7 +61427,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -61046,7 +61439,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -61055,7 +61448,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -61064,22 +61457,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="W7" s="2">
         <v>8.3</v>
@@ -61093,10 +61486,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -61108,7 +61501,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -61123,22 +61516,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:22">
@@ -61149,10 +61542,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -61167,16 +61560,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:22">
@@ -61187,10 +61580,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -61205,16 +61598,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:22">
@@ -61225,10 +61618,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -61243,16 +61636,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:22">
@@ -61263,10 +61656,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -61281,16 +61674,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:23">
@@ -61301,7 +61694,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -61325,16 +61718,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -61348,7 +61741,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -61372,16 +61765,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -61395,10 +61788,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -61419,16 +61812,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -61442,10 +61835,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -61461,13 +61854,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:22">
@@ -61478,10 +61871,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -61497,13 +61890,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:22">
@@ -61514,7 +61907,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -61533,13 +61926,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:22">
@@ -61550,7 +61943,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -61569,13 +61962,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:22">
@@ -61586,7 +61979,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -61604,16 +61997,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:22">
@@ -61624,7 +62017,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -61642,16 +62035,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
   </sheetData>
